--- a/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
+++ b/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
@@ -15,22 +15,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Liability &amp; Equity</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>IOUiPersonX</t>
+  </si>
+  <si>
+    <t>InvPPFSBI</t>
+  </si>
+  <si>
+    <t>InvNPS</t>
+  </si>
+  <si>
+    <t>EquitySharesLarsenAndToubro</t>
+  </si>
+  <si>
+    <t>EquitySharesMandM</t>
+  </si>
+  <si>
+    <t>InvCoMfICICIPruDynamic</t>
+  </si>
+  <si>
+    <t>BaSBIAcc12345678</t>
+  </si>
+  <si>
+    <t>BaCitiAcc98765432</t>
+  </si>
+  <si>
+    <t>IOUiPersonY</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00008B"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,12 +408,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>172181.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>73100.009999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>129680.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>235038.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
+++ b/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="480" yWindow="24" windowWidth="21060" windowHeight="6624"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sample Previous Balance Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -411,7 +409,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -603,36 +601,4 @@
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LUnrestricted</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LUnrestricted</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
+++ b/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -447,9 +447,7 @@
       <c r="C2" s="3">
         <v>2000000</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -461,9 +459,7 @@
       <c r="C3" s="3">
         <v>100000</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
@@ -472,9 +468,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3">
         <v>800000</v>
       </c>
@@ -486,9 +480,7 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3">
         <v>300000</v>
       </c>
@@ -500,9 +492,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3">
         <v>172181.05</v>
       </c>
@@ -514,9 +504,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>73100.009999999995</v>
       </c>
@@ -528,9 +516,7 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3">
         <v>190000</v>
       </c>
@@ -542,9 +528,7 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3">
         <v>129680.62</v>
       </c>
@@ -556,9 +540,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="3">
         <v>235038.32</v>
       </c>
@@ -570,9 +552,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3">
         <v>200000</v>
       </c>

--- a/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
+++ b/BalanceSheet/BalanceSheetViewModel/Docs/PreviousBalanceSheetTemplate.xlsx
@@ -34,41 +34,41 @@
     <t>Capital</t>
   </si>
   <si>
-    <t>IOUiPersonX</t>
-  </si>
-  <si>
-    <t>InvPPFSBI</t>
-  </si>
-  <si>
-    <t>InvNPS</t>
-  </si>
-  <si>
-    <t>EquitySharesLarsenAndToubro</t>
-  </si>
-  <si>
-    <t>EquitySharesMandM</t>
-  </si>
-  <si>
     <t>InvCoMfICICIPruDynamic</t>
   </si>
   <si>
-    <t>BaSBIAcc12345678</t>
-  </si>
-  <si>
-    <t>BaCitiAcc98765432</t>
-  </si>
-  <si>
-    <t>IOUiPersonY</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>IOUi PersonX</t>
+  </si>
+  <si>
+    <t>Inv PPF SBI</t>
+  </si>
+  <si>
+    <t>Inv NPS</t>
+  </si>
+  <si>
+    <t>Equity Shares Larsen&amp;Toubro</t>
+  </si>
+  <si>
+    <t>Equity Shares M&amp;M</t>
+  </si>
+  <si>
+    <t>Bank SBI Acc#12345678</t>
+  </si>
+  <si>
+    <t>Bank Citi Acc#98765432</t>
+  </si>
+  <si>
+    <t>IOUi PersonY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -79,6 +79,10 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -104,17 +108,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,168 +418,178 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B3" sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>2000000</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>800000</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>300000</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>172181.05</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>73100.009999999995</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>190000</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>129680.62</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>235038.32</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>172181.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>73100.009999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>129680.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>235038.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>2100000</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>2100000</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>0</v>
       </c>
     </row>
